--- a/output/HEDGE_06867811000170.xlsx
+++ b/output/HEDGE_06867811000170.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>7.376779062362198</v>
+        <v>7.407398078744988</v>
       </c>
       <c r="C192">
-        <v>0.0549582826602999</v>
+        <v>0.05881439306973779</v>
       </c>
     </row>
   </sheetData>

--- a/output/HEDGE_06867811000170.xlsx
+++ b/output/HEDGE_06867811000170.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>HEDGE ALTERNATIVE INVESTMENTS FICFI MULTIMERCADO CRÉDITO PRIVADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>0.01345757582851559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.02970391919014315</v>
-      </c>
-      <c r="C3">
         <v>0.0160306102091603</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.04665361751001273</v>
-      </c>
-      <c r="C4">
         <v>0.01646074954555909</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.06217386464454111</v>
-      </c>
-      <c r="C5">
         <v>0.01482844646488779</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.07838322955638777</v>
-      </c>
-      <c r="C6">
         <v>0.01526055710029284</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.09462622861377157</v>
-      </c>
-      <c r="C7">
         <v>0.0150623624442543</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.1111987849664926</v>
-      </c>
-      <c r="C8">
         <v>0.01513992257768981</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.1291987859220081</v>
-      </c>
-      <c r="C9">
         <v>0.01619872267594169</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.1455509048492889</v>
-      </c>
-      <c r="C10">
         <v>0.0144811694195448</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.1633584649834623</v>
-      </c>
-      <c r="C11">
         <v>0.01554497496251916</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.180352690325549</v>
-      </c>
-      <c r="C12">
         <v>0.01460790104993848</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.1988042679055244</v>
-      </c>
-      <c r="C13">
         <v>0.01563225782531696</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.2180321062762558</v>
-      </c>
-      <c r="C14">
         <v>0.01603918077829758</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.2394298247919007</v>
-      </c>
-      <c r="C15">
         <v>0.01756745032038731</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.2491564948060567</v>
-      </c>
-      <c r="C16">
         <v>0.007847697239163232</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.2644314611121914</v>
-      </c>
-      <c r="C17">
         <v>0.01222822470174667</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.246022403971887</v>
-      </c>
-      <c r="C18">
         <v>-0.0145591577768176</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.2637221819578608</v>
-      </c>
-      <c r="C19">
         <v>0.01420502386598588</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.285122002607602</v>
-      </c>
-      <c r="C20">
         <v>0.01693395981748691</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.3118424202060952</v>
-      </c>
-      <c r="C21">
         <v>0.02079212521789797</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.3288197329238631</v>
-      </c>
-      <c r="C22">
         <v>0.01294157930576811</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.3498082997031691</v>
-      </c>
-      <c r="C23">
         <v>0.01579489396437839</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.376597801072184</v>
-      </c>
-      <c r="C24">
         <v>0.0198468933513789</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.3892460552737049</v>
-      </c>
-      <c r="C25">
         <v>0.009188053468972335</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.4052900204528094</v>
-      </c>
-      <c r="C26">
         <v>0.01154868507144591</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.414627604556089</v>
-      </c>
-      <c r="C27">
         <v>0.006644595754170979</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.4303268197434345</v>
-      </c>
-      <c r="C28">
         <v>0.01109777240086585</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.4432750102598477</v>
-      </c>
-      <c r="C29">
         <v>0.009052609751620144</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.4610171175823929</v>
-      </c>
-      <c r="C30">
         <v>0.01229294985115192</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.4779475144891983</v>
-      </c>
-      <c r="C31">
         <v>0.01158808935436761</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.4979126286183579</v>
-      </c>
-      <c r="C32">
         <v>0.01350867600738859</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.5003297961742117</v>
-      </c>
-      <c r="C33">
         <v>0.001613690618312846</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.5243002401688206</v>
-      </c>
-      <c r="C34">
         <v>0.01597678327507235</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.5410630396572376</v>
-      </c>
-      <c r="C35">
         <v>0.01099704575691751</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.5513956976003662</v>
-      </c>
-      <c r="C36">
         <v>0.006704889856697038</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>0.5657525090642588</v>
-      </c>
-      <c r="C37">
         <v>0.009254126130489482</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>0.5887612267099069</v>
-      </c>
-      <c r="C38">
         <v>0.01469499011654074</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>0.6290175724077702</v>
-      </c>
-      <c r="C39">
         <v>0.02533819747176747</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>0.6354916676659768</v>
-      </c>
-      <c r="C40">
         <v>0.003974232916737375</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>0.6715172773923601</v>
-      </c>
-      <c r="C41">
         <v>0.02202738811735783</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>0.707862411501349</v>
-      </c>
-      <c r="C42">
         <v>0.02174379804538362</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>0.700395631192039</v>
-      </c>
-      <c r="C43">
         <v>-0.004372003423124826</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>0.6840933901737654</v>
-      </c>
-      <c r="C44">
         <v>-0.009587322337946236</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>0.6640529814233453</v>
-      </c>
-      <c r="C45">
         <v>-0.01189982032311887</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.6112838736216093</v>
-      </c>
-      <c r="C46">
         <v>-0.0317111945297559</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.5316560851287868</v>
-      </c>
-      <c r="C47">
         <v>-0.04941884530492247</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.5247392995402538</v>
-      </c>
-      <c r="C48">
         <v>-0.004515886859778662</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>0.5727830009970805</v>
-      </c>
-      <c r="C49">
         <v>0.03150945310540165</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>0.6126433810724801</v>
-      </c>
-      <c r="C50">
         <v>0.02534385229884206</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>0.6220165103522937</v>
-      </c>
-      <c r="C51">
         <v>0.005812276532943139</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>0.6259957546446415</v>
-      </c>
-      <c r="C52">
         <v>0.002453269906286915</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>0.8314336888965757</v>
-      </c>
-      <c r="C53">
         <v>0.1263459228999231</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>0.9168537167880728</v>
-      </c>
-      <c r="C54">
         <v>0.04664107055001376</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>0.9655201276950913</v>
-      </c>
-      <c r="C55">
         <v>0.02538869319071724</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>1.070172007122413</v>
-      </c>
-      <c r="C56">
         <v>0.05324386046865048</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>1.132194518112035</v>
-      </c>
-      <c r="C57">
         <v>0.02996007615610408</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>1.153799965696994</v>
-      </c>
-      <c r="C58">
         <v>0.01013296272991515</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>1.160329576405647</v>
-      </c>
-      <c r="C59">
         <v>0.003031669984515206</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>1.190833357619352</v>
-      </c>
-      <c r="C60">
         <v>0.01411996648421443</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>1.265680224316819</v>
-      </c>
-      <c r="C61">
         <v>0.03416365121389164</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>1.34568486812214</v>
-      </c>
-      <c r="C62">
         <v>0.03531153379309981</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>1.334565152063126</v>
-      </c>
-      <c r="C63">
         <v>-0.00474049869619364</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>1.385652839242639</v>
-      </c>
-      <c r="C64">
         <v>0.02188317046297295</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>1.399803737116665</v>
-      </c>
-      <c r="C65">
         <v>0.005931666854980699</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>1.397260345963496</v>
-      </c>
-      <c r="C66">
         <v>-0.001059832982935882</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>1.380467161082236</v>
-      </c>
-      <c r="C67">
         <v>-0.00700515691152892</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>1.420009736702927</v>
-      </c>
-      <c r="C68">
         <v>0.01661126700975535</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>1.475216173437529</v>
-      </c>
-      <c r="C69">
         <v>0.02281248537859892</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>1.468749913406408</v>
-      </c>
-      <c r="C70">
         <v>-0.002612402141078829</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>1.52968170345481</v>
-      </c>
-      <c r="C71">
         <v>0.02468123227772678</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>1.554422579595635</v>
-      </c>
-      <c r="C72">
         <v>0.009780232867651506</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>1.587238708315039</v>
-      </c>
-      <c r="C73">
         <v>0.0128467893219919</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>1.569563678180469</v>
-      </c>
-      <c r="C74">
         <v>-0.00683161939320287</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>1.604338518119679</v>
-      </c>
-      <c r="C75">
         <v>0.01353336375140346</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>1.520471011809694</v>
-      </c>
-      <c r="C76">
         <v>-0.03220299731639253</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>1.469804133655597</v>
-      </c>
-      <c r="C77">
         <v>-0.0201021467482454</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>1.474418700202713</v>
-      </c>
-      <c r="C78">
         <v>0.001868393725734885</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>1.460075743713544</v>
-      </c>
-      <c r="C79">
         <v>-0.005796495349793984</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>1.480563620371782</v>
-      </c>
-      <c r="C80">
         <v>0.008328148720864403</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>1.478808720607746</v>
-      </c>
-      <c r="C81">
         <v>-0.0007074600907726047</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>1.37462179502186</v>
-      </c>
-      <c r="C82">
         <v>-0.04203104689753623</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>1.47444727011611</v>
-      </c>
-      <c r="C83">
         <v>0.04203847337016908</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>1.491081743873115</v>
-      </c>
-      <c r="C84">
         <v>0.006722500801653819</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>1.570164888531951</v>
-      </c>
-      <c r="C85">
         <v>0.03174650725667405</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>1.566957223004418</v>
-      </c>
-      <c r="C86">
         <v>-0.001248038809434249</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>1.585505307649714</v>
-      </c>
-      <c r="C87">
         <v>0.007225708507751172</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>1.535643833509069</v>
-      </c>
-      <c r="C88">
         <v>-0.01928500165639602</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>1.540155873243225</v>
-      </c>
-      <c r="C89">
         <v>0.001779445391552503</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>1.427613633486231</v>
-      </c>
-      <c r="C90">
         <v>-0.04430524950947257</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>1.443594725745553</v>
-      </c>
-      <c r="C91">
         <v>0.006583046016417127</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>1.569846988525692</v>
-      </c>
-      <c r="C92">
         <v>0.05166661290022989</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>1.595541373582194</v>
-      </c>
-      <c r="C93">
         <v>0.009998410477832786</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>1.720283253014293</v>
-      </c>
-      <c r="C94">
         <v>0.04806006203628277</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>1.684574396675571</v>
-      </c>
-      <c r="C95">
         <v>-0.01312688901023606</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>1.919911939691684</v>
-      </c>
-      <c r="C96">
         <v>0.08766288738637384</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>1.967326243089831</v>
-      </c>
-      <c r="C97">
         <v>0.01623826484409463</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>1.964864261857111</v>
-      </c>
-      <c r="C98">
         <v>-0.0008296968486202205</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>1.92934813299438</v>
-      </c>
-      <c r="C99">
         <v>-0.01197900670180596</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>1.953324310081979</v>
-      </c>
-      <c r="C100">
         <v>0.008184816552715413</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>1.999161057392561</v>
-      </c>
-      <c r="C101">
         <v>0.01552039075224698</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>2.086389111709795</v>
-      </c>
-      <c r="C102">
         <v>0.0290841514170197</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>1.9483674778834</v>
-      </c>
-      <c r="C103">
         <v>-0.04471945332581029</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>1.952980897811917</v>
-      </c>
-      <c r="C104">
         <v>0.001564737083529888</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>1.930957221093387</v>
-      </c>
-      <c r="C105">
         <v>-0.007458116892950284</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>1.894811694171977</v>
-      </c>
-      <c r="C106">
         <v>-0.01233232838107623</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>2.021577164326211</v>
-      </c>
-      <c r="C107">
         <v>0.04379057553534382</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>2.04538631730472</v>
-      </c>
-      <c r="C108">
         <v>0.007879710390854111</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>1.951152327802969</v>
-      </c>
-      <c r="C109">
         <v>-0.03094319724439809</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>1.741489963981843</v>
-      </c>
-      <c r="C110">
         <v>-0.07104423646515456</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>1.663446324633524</v>
-      </c>
-      <c r="C111">
         <v>-0.0284675998722117</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>1.724542941105369</v>
-      </c>
-      <c r="C112">
         <v>0.02293893288059823</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>1.693055934443993</v>
-      </c>
-      <c r="C113">
         <v>-0.01155680322975605</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>1.822726171712824</v>
-      </c>
-      <c r="C114">
         <v>0.04814984925131238</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>1.751502142026868</v>
-      </c>
-      <c r="C115">
         <v>-0.02523235530236956</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>1.877576774475888</v>
-      </c>
-      <c r="C116">
         <v>0.04582029231354623</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>1.859337512439617</v>
-      </c>
-      <c r="C117">
         <v>-0.006338410220034008</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>1.965746107110421</v>
-      </c>
-      <c r="C118">
         <v>0.03721442264436092</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>1.79970436350485</v>
-      </c>
-      <c r="C119">
         <v>-0.0559864997234536</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>1.896249553893702</v>
-      </c>
-      <c r="C120">
         <v>0.03448406612046351</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>2.036131003085837</v>
-      </c>
-      <c r="C121">
         <v>0.04829744350036402</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>1.96485957983117</v>
-      </c>
-      <c r="C122">
         <v>-0.02347442293571278</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>2.085339095728798</v>
-      </c>
-      <c r="C123">
         <v>0.0406358252907506</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>2.252864277145359</v>
-      </c>
-      <c r="C124">
         <v>0.05429717000911682</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>2.345182649176274</v>
-      </c>
-      <c r="C125">
         <v>0.0283806406186522</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>2.592775729524139</v>
-      </c>
-      <c r="C126">
         <v>0.07401481662259402</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>2.727789782768329</v>
-      </c>
-      <c r="C127">
         <v>0.03757931566245376</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>2.917373994976855</v>
-      </c>
-      <c r="C128">
         <v>0.05085700193848841</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>2.836080456315981</v>
-      </c>
-      <c r="C129">
         <v>-0.02075204939970354</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>3.000275570669688</v>
-      </c>
-      <c r="C130">
         <v>0.04280283383612682</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>3.131197342138091</v>
-      </c>
-      <c r="C131">
         <v>0.03272818813492018</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>3.131269483558206</v>
-      </c>
-      <c r="C132">
         <v>1.746259356316671e-05</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>3.141250607349539</v>
-      </c>
-      <c r="C133">
         <v>0.002415994364699969</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>2.900731303786565</v>
-      </c>
-      <c r="C134">
         <v>-0.05807890571416296</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>3.137295250944646</v>
-      </c>
-      <c r="C135">
         <v>0.06064605037738469</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>3.27572622761048</v>
-      </c>
-      <c r="C136">
         <v>0.03345929363736544</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>3.40381699776075</v>
-      </c>
-      <c r="C137">
         <v>0.02995766410934442</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>3.522426187622156</v>
-      </c>
-      <c r="C138">
         <v>0.02693326946185937</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>3.520783083171414</v>
-      </c>
-      <c r="C139">
         <v>-0.0003633236635768311</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>3.727764270504526</v>
-      </c>
-      <c r="C140">
         <v>0.04578436601030433</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>3.788580060971444</v>
-      </c>
-      <c r="C141">
         <v>0.01286354119775668</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>3.862538298255563</v>
-      </c>
-      <c r="C142">
         <v>0.01544471144732529</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>4.001719067932852</v>
-      </c>
-      <c r="C143">
         <v>0.02862306909278622</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>3.872063832257343</v>
-      </c>
-      <c r="C144">
         <v>-0.02592213475298077</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>3.862658693208339</v>
-      </c>
-      <c r="C145">
         <v>-0.001930421967531126</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>4.085049287878188</v>
-      </c>
-      <c r="C146">
         <v>0.04573436235211426</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>4.352753007365592</v>
-      </c>
-      <c r="C147">
         <v>0.05264525559773037</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>4.352473041324612</v>
-      </c>
-      <c r="C148">
         <v>-5.230318690108149e-05</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>4.424685838448128</v>
-      </c>
-      <c r="C149">
         <v>0.01349148264101196</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>4.497171339694837</v>
-      </c>
-      <c r="C150">
         <v>0.0133621565202835</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>4.487552642931981</v>
-      </c>
-      <c r="C151">
         <v>-0.001749753858571013</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>4.490503943651341</v>
-      </c>
-      <c r="C152">
         <v>0.0005378172951400195</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>4.713535402565846</v>
-      </c>
-      <c r="C153">
         <v>0.04062130930119734</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>4.987019704162846</v>
-      </c>
-      <c r="C154">
         <v>0.04786603780807663</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>5.279613837966548</v>
-      </c>
-      <c r="C155">
         <v>0.04887141654139837</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>5.143368411899799</v>
-      </c>
-      <c r="C156">
         <v>-0.02169646567166417</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>5.232223326904307</v>
-      </c>
-      <c r="C157">
         <v>0.01446354980638853</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>5.350041732139386</v>
-      </c>
-      <c r="C158">
         <v>0.01890471490751322</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>5.38749115550967</v>
-      </c>
-      <c r="C159">
         <v>0.005897508229078641</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>5.438197974211593</v>
-      </c>
-      <c r="C160">
         <v>0.007938456189983789</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>5.472520186459295</v>
-      </c>
-      <c r="C161">
         <v>0.005331027779074349</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>5.213524270810292</v>
-      </c>
-      <c r="C162">
         <v>-0.04001469415125647</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>4.908765946956469</v>
-      </c>
-      <c r="C163">
         <v>-0.04904757921128722</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>5.058395087503721</v>
-      </c>
-      <c r="C164">
         <v>0.02532324717047296</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>5.047280244573747</v>
-      </c>
-      <c r="C165">
         <v>-0.001834618371604702</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>5.042461293261562</v>
-      </c>
-      <c r="C166">
         <v>-0.000796879112144433</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>5.367526519138258</v>
-      </c>
-      <c r="C167">
         <v>0.0537968238603701</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>5.602163860397275</v>
-      </c>
-      <c r="C168">
         <v>0.03684905599588628</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>5.811406084053831</v>
-      </c>
-      <c r="C169">
         <v>0.0316929764363596</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>6.142690378102261</v>
-      </c>
-      <c r="C170">
         <v>0.04863669702853257</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>6.283102138395909</v>
-      </c>
-      <c r="C171">
         <v>0.01965810540018875</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>6.348321135381736</v>
-      </c>
-      <c r="C172">
         <v>0.008954837615416267</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>6.464236631502104</v>
-      </c>
-      <c r="C173">
         <v>0.01577441894342924</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>6.56162907748323</v>
-      </c>
-      <c r="C174">
         <v>0.01304787760480308</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>6.728065353438017</v>
-      </c>
-      <c r="C175">
         <v>0.02201063742340859</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>6.864239306945499</v>
-      </c>
-      <c r="C176">
         <v>0.01762070418399109</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>6.965421422944124</v>
-      </c>
-      <c r="C177">
         <v>0.01286610338895255</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>7.128260087496553</v>
-      </c>
-      <c r="C178">
         <v>0.02044319514387238</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>7.526935934119118</v>
-      </c>
-      <c r="C179">
         <v>0.04904811636574413</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>7.748611898747846</v>
-      </c>
-      <c r="C180">
         <v>0.02599714203805958</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>8.332747570482407</v>
-      </c>
-      <c r="C181">
         <v>0.0667689547204815</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>8.190605276069927</v>
-      </c>
-      <c r="C182">
         <v>-0.0152304874142366</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>7.846415598599405</v>
-      </c>
-      <c r="C183">
         <v>-0.03745016428533898</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>6.052390914767541</v>
-      </c>
-      <c r="C184">
         <v>-0.2027967897094842</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>6.284473685342058</v>
-      </c>
-      <c r="C185">
         <v>0.03290838148074604</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>6.679032120131231</v>
-      </c>
-      <c r="C186">
         <v>0.05416430229998759</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>7.255106298710389</v>
-      </c>
-      <c r="C187">
         <v>0.07501911302974396</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>7.565331508935742</v>
-      </c>
-      <c r="C188">
         <v>0.03757979594688154</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>7.444199853710577</v>
-      </c>
-      <c r="C189">
         <v>-0.01414208604755052</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>7.128367296335455</v>
-      </c>
-      <c r="C190">
         <v>-0.03740230724600135</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>6.940388923473241</v>
-      </c>
-      <c r="C191">
         <v>-0.02312621538976967</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>7.407398078744988</v>
-      </c>
-      <c r="C192">
-        <v>0.05881439306973779</v>
+        <v>0.04909810674359094</v>
       </c>
     </row>
   </sheetData>
